--- a/biology/Médecine/Tronc_artériel_brachiocéphalique/Tronc_artériel_brachiocéphalique.xlsx
+++ b/biology/Médecine/Tronc_artériel_brachiocéphalique/Tronc_artériel_brachiocéphalique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tronc_art%C3%A9riel_brachioc%C3%A9phalique</t>
+          <t>Tronc_artériel_brachiocéphalique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tronc artériel brachiocéphalique (du latin brachium, bras et du grec kephalê, tête) (TABC) ou tronc innominé (du latin in, privatif et nomen, nom, c'est-à-dire sans nom[1]) est une artère qui naît de l'aorte, elle est située dans le médiastin supérieur et achemine le sang oxygéné vers le membre supérieur droit, la tête et le cou.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tronc artériel brachiocéphalique (du latin brachium, bras et du grec kephalê, tête) (TABC) ou tronc innominé (du latin in, privatif et nomen, nom, c'est-à-dire sans nom) est une artère qui naît de l'aorte, elle est située dans le médiastin supérieur et achemine le sang oxygéné vers le membre supérieur droit, la tête et le cou.
 Il forme, avec l'artère carotide commune droite et artère subclavière droite, l'ensemble des troncs supra-aortiques (TSA), 
 Il s'agit de la première collatérale de gros calibre de l'aorte (les premières collatérales de l'aorte étant les artères coronaires). Cette artère, peu après son origine, se divise en deux artères collatérales : artère carotide commune droite et artère subclavière droite. Elle n'a pas d'homologue à gauche où elle est remplacée par l'artère carotide commune gauche et l'artère subclavière gauche qui partent directement et indépendamment du toit de l'aorte.
 Par ailleurs, on observe deux veines brachiocéphaliques, une droite et une gauche.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tronc_art%C3%A9riel_brachioc%C3%A9phalique</t>
+          <t>Tronc_artériel_brachiocéphalique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Origine et trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'artère brachiocéphalique nait de la portion horizontale de l'aorte juste après la première courbure, elle mesure 2,8 à 3 cm et est situé en avant et à droite des deux autres collatérales de l'aorte[2]. Ce tronc monte vers le haut et vers la droite, passe en avant de la trachée où elle se divise.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère brachiocéphalique nait de la portion horizontale de l'aorte juste après la première courbure, elle mesure 2,8 à 3 cm et est situé en avant et à droite des deux autres collatérales de l'aorte. Ce tronc monte vers le haut et vers la droite, passe en avant de la trachée où elle se divise.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tronc_art%C3%A9riel_brachioc%C3%A9phalique</t>
+          <t>Tronc_artériel_brachiocéphalique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Collatérales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les collatérales sont au nombre de deux :
 l'artère subclavière droite est abandonnée par le tronc artériel brachiocéphalique au-dessus de la première côte, elle est dirigée vers le haut et le dehors pour amener le sang oxygéné vers le membre supérieur droit. Elle se continue par l'artère axillaire et donne différentes collatérales ;
